--- a/data/pca/factorExposure/factorExposure_2015-09-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02593885968611253</v>
+        <v>0.02267173763581589</v>
       </c>
       <c r="C2">
-        <v>-0.03061319969111886</v>
+        <v>-0.04167937327590819</v>
       </c>
       <c r="D2">
-        <v>0.1096228590693244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1274507924785213</v>
+      </c>
+      <c r="E2">
+        <v>0.04745430143230336</v>
+      </c>
+      <c r="F2">
+        <v>-0.03544552871107993</v>
+      </c>
+      <c r="G2">
+        <v>0.08513427345318053</v>
+      </c>
+      <c r="H2">
+        <v>0.05649560915567418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.007582179488440284</v>
+        <v>0.001693502411501214</v>
       </c>
       <c r="C3">
-        <v>-0.04656209898492326</v>
+        <v>-0.03651649620652049</v>
       </c>
       <c r="D3">
-        <v>0.06622014726241322</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.04881705824036853</v>
+      </c>
+      <c r="E3">
+        <v>0.06817672397959282</v>
+      </c>
+      <c r="F3">
+        <v>-0.05877289664305885</v>
+      </c>
+      <c r="G3">
+        <v>0.1332991981627493</v>
+      </c>
+      <c r="H3">
+        <v>0.05431224374520463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05277101819921116</v>
+        <v>0.04612074724781972</v>
       </c>
       <c r="C4">
-        <v>-0.06772075976069158</v>
+        <v>-0.08324946184825045</v>
       </c>
       <c r="D4">
-        <v>0.1264102993857524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1437186730308559</v>
+      </c>
+      <c r="E4">
+        <v>0.06046421620636933</v>
+      </c>
+      <c r="F4">
+        <v>-0.05608866937903451</v>
+      </c>
+      <c r="G4">
+        <v>-0.05103571050202124</v>
+      </c>
+      <c r="H4">
+        <v>0.01266713512158067</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0349202828286174</v>
+        <v>0.03491113521486446</v>
       </c>
       <c r="C6">
-        <v>-0.02706413137544304</v>
+        <v>-0.03549715971819067</v>
       </c>
       <c r="D6">
-        <v>0.1514724984129765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1412561709187981</v>
+      </c>
+      <c r="E6">
+        <v>0.01265270314072131</v>
+      </c>
+      <c r="F6">
+        <v>-0.05284566545384724</v>
+      </c>
+      <c r="G6">
+        <v>0.004163985859916686</v>
+      </c>
+      <c r="H6">
+        <v>0.0548189087612377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01973685968676453</v>
+        <v>0.01656932912438366</v>
       </c>
       <c r="C7">
-        <v>-0.03250863210036824</v>
+        <v>-0.03908831433765832</v>
       </c>
       <c r="D7">
-        <v>0.1105492211595226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09952737148339993</v>
+      </c>
+      <c r="E7">
+        <v>0.0006850089837337369</v>
+      </c>
+      <c r="F7">
+        <v>-0.02862562763256586</v>
+      </c>
+      <c r="G7">
+        <v>0.02701450211832035</v>
+      </c>
+      <c r="H7">
+        <v>0.06446137823777767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01155299661890572</v>
+        <v>0.006548834206601143</v>
       </c>
       <c r="C8">
-        <v>-0.03513596810978818</v>
+        <v>-0.0394895713832551</v>
       </c>
       <c r="D8">
-        <v>0.06242134659562174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07560863093624347</v>
+      </c>
+      <c r="E8">
+        <v>0.02809246666183827</v>
+      </c>
+      <c r="F8">
+        <v>-0.07212929256791142</v>
+      </c>
+      <c r="G8">
+        <v>0.05452781675444079</v>
+      </c>
+      <c r="H8">
+        <v>0.0347733022925395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0429722797184391</v>
+        <v>0.03645240313088235</v>
       </c>
       <c r="C9">
-        <v>-0.06169579319690796</v>
+        <v>-0.07374875430649461</v>
       </c>
       <c r="D9">
-        <v>0.1164847577653469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1232497426822813</v>
+      </c>
+      <c r="E9">
+        <v>0.04301802931535467</v>
+      </c>
+      <c r="F9">
+        <v>-0.03480223982963697</v>
+      </c>
+      <c r="G9">
+        <v>-0.03272462519135699</v>
+      </c>
+      <c r="H9">
+        <v>0.008690985760359081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.128411048582602</v>
+        <v>0.1736089706517867</v>
       </c>
       <c r="C10">
-        <v>0.1855345704986519</v>
+        <v>0.1719805621545884</v>
       </c>
       <c r="D10">
-        <v>-0.0007836032038786405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.006795275768271688</v>
+      </c>
+      <c r="E10">
+        <v>0.03358407401501618</v>
+      </c>
+      <c r="F10">
+        <v>-0.04188151054691795</v>
+      </c>
+      <c r="G10">
+        <v>-0.01520874217653045</v>
+      </c>
+      <c r="H10">
+        <v>-0.04912523463863374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03419746519244497</v>
+        <v>0.02870589634673618</v>
       </c>
       <c r="C11">
-        <v>-0.04338334188596942</v>
+        <v>-0.05163421353660179</v>
       </c>
       <c r="D11">
-        <v>0.06050938263631228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05508367880867256</v>
+      </c>
+      <c r="E11">
+        <v>-0.01439642180158414</v>
+      </c>
+      <c r="F11">
+        <v>0.003537849999268373</v>
+      </c>
+      <c r="G11">
+        <v>0.01472639304788318</v>
+      </c>
+      <c r="H11">
+        <v>0.02665105127687229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03878297462559488</v>
+        <v>0.03171611450017424</v>
       </c>
       <c r="C12">
-        <v>-0.0449496465326694</v>
+        <v>-0.05227769420827506</v>
       </c>
       <c r="D12">
-        <v>0.06273833052494564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0543681132285118</v>
+      </c>
+      <c r="E12">
+        <v>-0.00409700804465288</v>
+      </c>
+      <c r="F12">
+        <v>0.007404290852823027</v>
+      </c>
+      <c r="G12">
+        <v>0.01652047504561571</v>
+      </c>
+      <c r="H12">
+        <v>0.03235221226357157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01117153562812432</v>
+        <v>0.01443091899583262</v>
       </c>
       <c r="C13">
-        <v>-0.0361071052028762</v>
+        <v>-0.04548171526277518</v>
       </c>
       <c r="D13">
-        <v>0.1381494239275698</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1577093204180305</v>
+      </c>
+      <c r="E13">
+        <v>0.02022758221814469</v>
+      </c>
+      <c r="F13">
+        <v>-0.07449115589176585</v>
+      </c>
+      <c r="G13">
+        <v>0.04191495079809582</v>
+      </c>
+      <c r="H13">
+        <v>0.03576523572618677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005383742611687619</v>
+        <v>0.006769686811419586</v>
       </c>
       <c r="C14">
-        <v>-0.02420794373478911</v>
+        <v>-0.02826762755089865</v>
       </c>
       <c r="D14">
-        <v>0.1020992117611577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.1040004347722218</v>
+      </c>
+      <c r="E14">
+        <v>0.02182761884086071</v>
+      </c>
+      <c r="F14">
+        <v>-0.02804771263973433</v>
+      </c>
+      <c r="G14">
+        <v>0.03056295117795255</v>
+      </c>
+      <c r="H14">
+        <v>0.08485703854555758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003000144192875875</v>
+        <v>0.001628201599698528</v>
       </c>
       <c r="C15">
-        <v>-0.005800302998527153</v>
+        <v>-0.01396997351434212</v>
       </c>
       <c r="D15">
-        <v>0.0100485376132385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03955244917292722</v>
+      </c>
+      <c r="E15">
+        <v>0.00928747685398945</v>
+      </c>
+      <c r="F15">
+        <v>-0.007639582870620693</v>
+      </c>
+      <c r="G15">
+        <v>0.008270582710929513</v>
+      </c>
+      <c r="H15">
+        <v>0.01754226666687711</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03173130201984135</v>
+        <v>0.02706073482182056</v>
       </c>
       <c r="C16">
-        <v>-0.04488562348032289</v>
+        <v>-0.05071102865652775</v>
       </c>
       <c r="D16">
-        <v>0.06946999652684466</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06114184565593562</v>
+      </c>
+      <c r="E16">
+        <v>0.004505261840302022</v>
+      </c>
+      <c r="F16">
+        <v>-0.003793986975671813</v>
+      </c>
+      <c r="G16">
+        <v>0.01505454710077381</v>
+      </c>
+      <c r="H16">
+        <v>0.04368217835196159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01059569982371546</v>
+        <v>0.006202789363994617</v>
       </c>
       <c r="C19">
-        <v>-0.03399027556123538</v>
+        <v>-0.02931285662462074</v>
       </c>
       <c r="D19">
-        <v>0.1462504977487669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1118874333571774</v>
+      </c>
+      <c r="E19">
+        <v>0.05584896586660554</v>
+      </c>
+      <c r="F19">
+        <v>-0.01400425517678296</v>
+      </c>
+      <c r="G19">
+        <v>0.02904636904741837</v>
+      </c>
+      <c r="H19">
+        <v>0.04744474743503673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01486525654338037</v>
+        <v>0.01498263350849511</v>
       </c>
       <c r="C20">
-        <v>-0.03538238006890371</v>
+        <v>-0.04002020314276825</v>
       </c>
       <c r="D20">
-        <v>0.09338657300842318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1059650611580024</v>
+      </c>
+      <c r="E20">
+        <v>0.04302726437421119</v>
+      </c>
+      <c r="F20">
+        <v>-0.02743463524616799</v>
+      </c>
+      <c r="G20">
+        <v>0.009379101080810699</v>
+      </c>
+      <c r="H20">
+        <v>0.05068120423846732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01076307908442859</v>
+        <v>0.008488160780597137</v>
       </c>
       <c r="C21">
-        <v>-0.03826734086035822</v>
+        <v>-0.04369829802213467</v>
       </c>
       <c r="D21">
-        <v>0.1524713889415023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1503424117458566</v>
+      </c>
+      <c r="E21">
+        <v>0.07591794257395318</v>
+      </c>
+      <c r="F21">
+        <v>-0.06216747101266741</v>
+      </c>
+      <c r="G21">
+        <v>0.01145085135170649</v>
+      </c>
+      <c r="H21">
+        <v>0.07923224528820602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00113622164618564</v>
+        <v>0.007688325940973705</v>
       </c>
       <c r="C22">
-        <v>-0.04929413941491698</v>
+        <v>-0.05078531419952483</v>
       </c>
       <c r="D22">
-        <v>0.1279171245075305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1852254534020697</v>
+      </c>
+      <c r="E22">
+        <v>0.01119399444662479</v>
+      </c>
+      <c r="F22">
+        <v>-0.1226876369605611</v>
+      </c>
+      <c r="G22">
+        <v>0.1019338614525631</v>
+      </c>
+      <c r="H22">
+        <v>-0.09198860478330101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001307140399409968</v>
+        <v>0.007771453998750376</v>
       </c>
       <c r="C23">
-        <v>-0.04961020647755952</v>
+        <v>-0.05134129610476764</v>
       </c>
       <c r="D23">
-        <v>0.1273478882697973</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1843583419887736</v>
+      </c>
+      <c r="E23">
+        <v>0.01134748694764504</v>
+      </c>
+      <c r="F23">
+        <v>-0.1226773144453511</v>
+      </c>
+      <c r="G23">
+        <v>0.1012121263799051</v>
+      </c>
+      <c r="H23">
+        <v>-0.09209916487561971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03815047052333297</v>
+        <v>0.02984601655223239</v>
       </c>
       <c r="C24">
-        <v>-0.05792795757505866</v>
+        <v>-0.0637613164322859</v>
       </c>
       <c r="D24">
-        <v>0.06864274385959507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06167253719965502</v>
+      </c>
+      <c r="E24">
+        <v>0.002386143871856479</v>
+      </c>
+      <c r="F24">
+        <v>-0.002193135365957817</v>
+      </c>
+      <c r="G24">
+        <v>0.009072748990443131</v>
+      </c>
+      <c r="H24">
+        <v>0.05558408612936364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04254598308505626</v>
+        <v>0.03474068955653337</v>
       </c>
       <c r="C25">
-        <v>-0.05210295600719569</v>
+        <v>-0.06004073325323483</v>
       </c>
       <c r="D25">
-        <v>0.06698601778698905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06026826635663873</v>
+      </c>
+      <c r="E25">
+        <v>0.007147848019223788</v>
+      </c>
+      <c r="F25">
+        <v>-0.00373106103478442</v>
+      </c>
+      <c r="G25">
+        <v>0.01336779890439396</v>
+      </c>
+      <c r="H25">
+        <v>0.02194612351525338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01401938972137713</v>
+        <v>0.01443514359798236</v>
       </c>
       <c r="C26">
-        <v>-0.01339030611426915</v>
+        <v>-0.0220167542406038</v>
       </c>
       <c r="D26">
-        <v>0.06822803035986663</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.07288676808157724</v>
+      </c>
+      <c r="E26">
+        <v>0.01824185351617006</v>
+      </c>
+      <c r="F26">
+        <v>-0.03303862053801693</v>
+      </c>
+      <c r="G26">
+        <v>0.01858191394764411</v>
+      </c>
+      <c r="H26">
+        <v>0.04950663550751624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1903976899177942</v>
+        <v>0.2494730206957761</v>
       </c>
       <c r="C28">
-        <v>0.2498684081586889</v>
+        <v>0.2242134955798553</v>
       </c>
       <c r="D28">
-        <v>-0.01329992381505446</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.007886703448481651</v>
+      </c>
+      <c r="E28">
+        <v>0.05827636532076742</v>
+      </c>
+      <c r="F28">
+        <v>-0.02370490201067701</v>
+      </c>
+      <c r="G28">
+        <v>-0.04450565395232375</v>
+      </c>
+      <c r="H28">
+        <v>-0.05882766248399351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003694946333102814</v>
+        <v>0.005524126820811351</v>
       </c>
       <c r="C29">
-        <v>-0.02228648832517796</v>
+        <v>-0.02692474052631198</v>
       </c>
       <c r="D29">
-        <v>0.09253413612373984</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.1015308121396077</v>
+      </c>
+      <c r="E29">
+        <v>0.009594787268467787</v>
+      </c>
+      <c r="F29">
+        <v>-0.04818388236144949</v>
+      </c>
+      <c r="G29">
+        <v>0.02246562312985529</v>
+      </c>
+      <c r="H29">
+        <v>0.08186532358463408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03274752329295848</v>
+        <v>0.03439803313983293</v>
       </c>
       <c r="C30">
-        <v>-0.06458770479312725</v>
+        <v>-0.07639603193568191</v>
       </c>
       <c r="D30">
-        <v>0.1608811050042517</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1700323150131737</v>
+      </c>
+      <c r="E30">
+        <v>0.01259472310541107</v>
+      </c>
+      <c r="F30">
+        <v>-0.04040714688999256</v>
+      </c>
+      <c r="G30">
+        <v>0.001638983871634412</v>
+      </c>
+      <c r="H30">
+        <v>0.06084741403749615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05794899232845337</v>
+        <v>0.04292061512463492</v>
       </c>
       <c r="C31">
-        <v>-0.07466447546253538</v>
+        <v>-0.0831522166002613</v>
       </c>
       <c r="D31">
-        <v>0.05220742922408732</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.04108497485828609</v>
+      </c>
+      <c r="E31">
+        <v>0.02279819374208579</v>
+      </c>
+      <c r="F31">
+        <v>-0.03859175386890653</v>
+      </c>
+      <c r="G31">
+        <v>0.01694095998450016</v>
+      </c>
+      <c r="H31">
+        <v>0.02028307465361104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02239975759463629</v>
+        <v>0.0220691896733502</v>
       </c>
       <c r="C32">
-        <v>-0.02043788154511989</v>
+        <v>-0.02636128894149989</v>
       </c>
       <c r="D32">
-        <v>0.09007997883254408</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1170382996492851</v>
+      </c>
+      <c r="E32">
+        <v>0.04850289677049868</v>
+      </c>
+      <c r="F32">
+        <v>-0.06471712793723342</v>
+      </c>
+      <c r="G32">
+        <v>0.01249253963785336</v>
+      </c>
+      <c r="H32">
+        <v>0.02604783974826913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02219247139089387</v>
+        <v>0.02220839044769652</v>
       </c>
       <c r="C33">
-        <v>-0.04378965319879798</v>
+        <v>-0.05137643643203441</v>
       </c>
       <c r="D33">
-        <v>0.1420298547622012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1369923501145831</v>
+      </c>
+      <c r="E33">
+        <v>0.03546398481921201</v>
+      </c>
+      <c r="F33">
+        <v>-0.03722423298240508</v>
+      </c>
+      <c r="G33">
+        <v>0.01369306192186998</v>
+      </c>
+      <c r="H33">
+        <v>0.04712017312789653</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03637981989581382</v>
+        <v>0.02719009843947971</v>
       </c>
       <c r="C34">
-        <v>-0.06252631344247547</v>
+        <v>-0.06512238950627328</v>
       </c>
       <c r="D34">
-        <v>0.06555270504783815</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04978819354961</v>
+      </c>
+      <c r="E34">
+        <v>-0.0140776401397051</v>
+      </c>
+      <c r="F34">
+        <v>0.01297177714846853</v>
+      </c>
+      <c r="G34">
+        <v>0.02838469090255643</v>
+      </c>
+      <c r="H34">
+        <v>0.04483325269570645</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001260081953538433</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.001844757105600035</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.009679694240534824</v>
+      </c>
+      <c r="E35">
+        <v>-0.0003844883468307703</v>
+      </c>
+      <c r="F35">
+        <v>-0.001921402964013231</v>
+      </c>
+      <c r="G35">
+        <v>0.0009403893930162265</v>
+      </c>
+      <c r="H35">
+        <v>0.002933179987854899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01960812164473023</v>
+        <v>0.01931312237896636</v>
       </c>
       <c r="C36">
-        <v>-0.007954623428011358</v>
+        <v>-0.01870686966091765</v>
       </c>
       <c r="D36">
-        <v>0.09309041829468406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0866159197167778</v>
+      </c>
+      <c r="E36">
+        <v>0.02368811662679207</v>
+      </c>
+      <c r="F36">
+        <v>-0.02447114273808634</v>
+      </c>
+      <c r="G36">
+        <v>-0.002259318381452045</v>
+      </c>
+      <c r="H36">
+        <v>0.04184750867528684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0168224200894492</v>
+        <v>0.02111971153749935</v>
       </c>
       <c r="C38">
-        <v>-0.01447800371964097</v>
+        <v>-0.018467707242694</v>
       </c>
       <c r="D38">
-        <v>0.07689610802157873</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.07697886385092198</v>
+      </c>
+      <c r="E38">
+        <v>0.03559675451378459</v>
+      </c>
+      <c r="F38">
+        <v>0.009123093732253229</v>
+      </c>
+      <c r="G38">
+        <v>0.02610185724009182</v>
+      </c>
+      <c r="H38">
+        <v>0.03512635440242386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03884561588534652</v>
+        <v>0.03129748128834025</v>
       </c>
       <c r="C39">
-        <v>-0.06093076435988583</v>
+        <v>-0.07513081167586426</v>
       </c>
       <c r="D39">
-        <v>0.1062760321803758</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1091198477647154</v>
+      </c>
+      <c r="E39">
+        <v>2.561015902356722e-05</v>
+      </c>
+      <c r="F39">
+        <v>0.005425210143049961</v>
+      </c>
+      <c r="G39">
+        <v>0.008829533466568557</v>
+      </c>
+      <c r="H39">
+        <v>0.08940187872980943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01724838925720296</v>
+        <v>0.01408579648473191</v>
       </c>
       <c r="C40">
-        <v>-0.04267504833013044</v>
+        <v>-0.03937822268121468</v>
       </c>
       <c r="D40">
-        <v>0.08944024994051689</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09371817821259103</v>
+      </c>
+      <c r="E40">
+        <v>0.03919400632181424</v>
+      </c>
+      <c r="F40">
+        <v>-0.1084899145183506</v>
+      </c>
+      <c r="G40">
+        <v>0.1783986976295572</v>
+      </c>
+      <c r="H40">
+        <v>0.09654386399102752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03042502990073651</v>
+        <v>0.02795110537623578</v>
       </c>
       <c r="C41">
-        <v>-0.004556297577306403</v>
+        <v>-0.01375876053987161</v>
       </c>
       <c r="D41">
-        <v>0.06841432680757514</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.04957595151278747</v>
+      </c>
+      <c r="E41">
+        <v>0.04794619485911975</v>
+      </c>
+      <c r="F41">
+        <v>-0.01664418405695821</v>
+      </c>
+      <c r="G41">
+        <v>0.0339501721089245</v>
+      </c>
+      <c r="H41">
+        <v>0.03652337836366059</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02577403936095235</v>
+        <v>0.02180033729825113</v>
       </c>
       <c r="C43">
-        <v>-0.01377776277740637</v>
+        <v>-0.02041440035889751</v>
       </c>
       <c r="D43">
-        <v>0.1042847962967073</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.07897604303297591</v>
+      </c>
+      <c r="E43">
+        <v>0.02760786416176041</v>
+      </c>
+      <c r="F43">
+        <v>-0.0126256807319676</v>
+      </c>
+      <c r="G43">
+        <v>0.02987136526574475</v>
+      </c>
+      <c r="H43">
+        <v>0.04540258877788193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01577377575931485</v>
+        <v>0.01741323780366192</v>
       </c>
       <c r="C44">
-        <v>-0.04313188721867921</v>
+        <v>-0.04478051068394242</v>
       </c>
       <c r="D44">
-        <v>0.09422982269919294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.1113206780087225</v>
+      </c>
+      <c r="E44">
+        <v>0.03513164383280937</v>
+      </c>
+      <c r="F44">
+        <v>-0.02491080814003474</v>
+      </c>
+      <c r="G44">
+        <v>0.007896515846176011</v>
+      </c>
+      <c r="H44">
+        <v>0.04359726942191088</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01635144976472295</v>
+        <v>0.01229327425497958</v>
       </c>
       <c r="C46">
-        <v>-0.02663677638711979</v>
+        <v>-0.03570444613547148</v>
       </c>
       <c r="D46">
-        <v>0.100230079494408</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.09821913798941946</v>
+      </c>
+      <c r="E46">
+        <v>0.02262867684294458</v>
+      </c>
+      <c r="F46">
+        <v>-0.02554395228504821</v>
+      </c>
+      <c r="G46">
+        <v>0.01370709749175065</v>
+      </c>
+      <c r="H46">
+        <v>0.08673119176141716</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09147442149085422</v>
+        <v>0.07281588081122857</v>
       </c>
       <c r="C47">
-        <v>-0.0878108101947407</v>
+        <v>-0.1023219296303004</v>
       </c>
       <c r="D47">
-        <v>0.02549322368397858</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02298208527654228</v>
+      </c>
+      <c r="E47">
+        <v>0.02882774189077727</v>
+      </c>
+      <c r="F47">
+        <v>-0.02330758808649924</v>
+      </c>
+      <c r="G47">
+        <v>0.004650498538172275</v>
+      </c>
+      <c r="H47">
+        <v>-0.04866451364011144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01255960064829205</v>
+        <v>0.0141756079023974</v>
       </c>
       <c r="C48">
-        <v>-0.02006805816202056</v>
+        <v>-0.02546696229252848</v>
       </c>
       <c r="D48">
-        <v>0.0794135807987426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.08259258495207124</v>
+      </c>
+      <c r="E48">
+        <v>0.05280340382502108</v>
+      </c>
+      <c r="F48">
+        <v>-0.03118468940296082</v>
+      </c>
+      <c r="G48">
+        <v>0.004950306796566313</v>
+      </c>
+      <c r="H48">
+        <v>0.06001826151986455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05292700354246759</v>
+        <v>0.04014265036513581</v>
       </c>
       <c r="C50">
-        <v>-0.06089472204050213</v>
+        <v>-0.07158019123443349</v>
       </c>
       <c r="D50">
-        <v>0.05732133006191707</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05106907957294244</v>
+      </c>
+      <c r="E50">
+        <v>0.0273495132821711</v>
+      </c>
+      <c r="F50">
+        <v>-0.04137546308927813</v>
+      </c>
+      <c r="G50">
+        <v>0.03991350241444837</v>
+      </c>
+      <c r="H50">
+        <v>0.005686724353608983</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01205900488386406</v>
+        <v>0.01019517618104777</v>
       </c>
       <c r="C51">
-        <v>-0.01789582696880932</v>
+        <v>-0.0240692182773291</v>
       </c>
       <c r="D51">
-        <v>0.0906350849585037</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0943101253879558</v>
+      </c>
+      <c r="E51">
+        <v>-0.0005410710963251155</v>
+      </c>
+      <c r="F51">
+        <v>-0.01063052533937537</v>
+      </c>
+      <c r="G51">
+        <v>0.002033227675590865</v>
+      </c>
+      <c r="H51">
+        <v>0.07051439094389184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1059870553065102</v>
+        <v>0.09223406274088847</v>
       </c>
       <c r="C53">
-        <v>-0.1064972713386067</v>
+        <v>-0.1227851076571814</v>
       </c>
       <c r="D53">
-        <v>-0.01890522480037964</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01094118361184409</v>
+      </c>
+      <c r="E53">
+        <v>0.07510747186379774</v>
+      </c>
+      <c r="F53">
+        <v>-0.07956376899282301</v>
+      </c>
+      <c r="G53">
+        <v>-0.004369600406124823</v>
+      </c>
+      <c r="H53">
+        <v>-0.01624165295075339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02050830708897911</v>
+        <v>0.01930887099023097</v>
       </c>
       <c r="C54">
-        <v>-0.02736359148228899</v>
+        <v>-0.03664365213219283</v>
       </c>
       <c r="D54">
-        <v>0.1059181922819837</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.09535006749505621</v>
+      </c>
+      <c r="E54">
+        <v>0.03438950043730615</v>
+      </c>
+      <c r="F54">
+        <v>-0.01920275553903846</v>
+      </c>
+      <c r="G54">
+        <v>0.04716175379729737</v>
+      </c>
+      <c r="H54">
+        <v>0.06556677485376916</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09827122116746356</v>
+        <v>0.08295982455283399</v>
       </c>
       <c r="C55">
-        <v>-0.08039106109019239</v>
+        <v>-0.09808505030873968</v>
       </c>
       <c r="D55">
-        <v>-0.03059868222807046</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0244425319396832</v>
+      </c>
+      <c r="E55">
+        <v>0.02887362050577772</v>
+      </c>
+      <c r="F55">
+        <v>-0.06469777791064073</v>
+      </c>
+      <c r="G55">
+        <v>0.02237239545077893</v>
+      </c>
+      <c r="H55">
+        <v>-0.01788015497364877</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.138028526494392</v>
+        <v>0.1160176383860263</v>
       </c>
       <c r="C56">
-        <v>-0.1144549809331531</v>
+        <v>-0.1453665564714315</v>
       </c>
       <c r="D56">
-        <v>-0.02753314218939816</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02613873610575908</v>
+      </c>
+      <c r="E56">
+        <v>0.04887397364075551</v>
+      </c>
+      <c r="F56">
+        <v>-0.05216427395151831</v>
+      </c>
+      <c r="G56">
+        <v>0.02650748827358677</v>
+      </c>
+      <c r="H56">
+        <v>-0.0436379512968033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.002026663763679033</v>
+        <v>0.008231693876139113</v>
       </c>
       <c r="C58">
-        <v>-0.03606503640457402</v>
+        <v>-0.04852935847772001</v>
       </c>
       <c r="D58">
-        <v>0.204629749667922</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.2668709552897026</v>
+      </c>
+      <c r="E58">
+        <v>0.09874417387422021</v>
+      </c>
+      <c r="F58">
+        <v>-0.1137436315988405</v>
+      </c>
+      <c r="G58">
+        <v>0.05731218457137414</v>
+      </c>
+      <c r="H58">
+        <v>-0.04557336944430393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1506619634193339</v>
+        <v>0.193861231576994</v>
       </c>
       <c r="C59">
-        <v>0.167143564139176</v>
+        <v>0.1427364098651039</v>
       </c>
       <c r="D59">
-        <v>0.05296487283165356</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.06785828627823737</v>
+      </c>
+      <c r="E59">
+        <v>0.04291808942555594</v>
+      </c>
+      <c r="F59">
+        <v>0.02153441841535963</v>
+      </c>
+      <c r="G59">
+        <v>-0.01704763837803893</v>
+      </c>
+      <c r="H59">
+        <v>-0.02043753775596053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2330873136374458</v>
+        <v>0.2119192847193564</v>
       </c>
       <c r="C60">
-        <v>-0.07848552018895193</v>
+        <v>-0.1238682730191691</v>
       </c>
       <c r="D60">
-        <v>0.1810226666168855</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1209412453555568</v>
+      </c>
+      <c r="E60">
+        <v>-0.3299861044064903</v>
+      </c>
+      <c r="F60">
+        <v>0.1024016943122748</v>
+      </c>
+      <c r="G60">
+        <v>-0.08846133850789384</v>
+      </c>
+      <c r="H60">
+        <v>-0.1699614173725238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04442971106529863</v>
+        <v>0.03596592944095128</v>
       </c>
       <c r="C61">
-        <v>-0.05600539835011215</v>
+        <v>-0.06757303507583214</v>
       </c>
       <c r="D61">
-        <v>0.1145055485416493</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09792594308196223</v>
+      </c>
+      <c r="E61">
+        <v>-0.004026957480652029</v>
+      </c>
+      <c r="F61">
+        <v>0.003962848725148332</v>
+      </c>
+      <c r="G61">
+        <v>0.005404905297366977</v>
+      </c>
+      <c r="H61">
+        <v>0.04680758100038481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01505288837637909</v>
+        <v>0.01377900666032452</v>
       </c>
       <c r="C63">
-        <v>-0.02466374355238789</v>
+        <v>-0.03480690046157312</v>
       </c>
       <c r="D63">
-        <v>0.0833596084852605</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07799043675753403</v>
+      </c>
+      <c r="E63">
+        <v>0.006225360866075449</v>
+      </c>
+      <c r="F63">
+        <v>-0.0262579485730028</v>
+      </c>
+      <c r="G63">
+        <v>0.006973967891022489</v>
+      </c>
+      <c r="H63">
+        <v>0.04820242872149416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05699761723038783</v>
+        <v>0.04468095332004045</v>
       </c>
       <c r="C64">
-        <v>-0.0757736215120722</v>
+        <v>-0.08368469785008475</v>
       </c>
       <c r="D64">
-        <v>0.04943949093262077</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05273155030486633</v>
+      </c>
+      <c r="E64">
+        <v>0.01702853644196821</v>
+      </c>
+      <c r="F64">
+        <v>-0.005432347092546936</v>
+      </c>
+      <c r="G64">
+        <v>-0.06627359382763098</v>
+      </c>
+      <c r="H64">
+        <v>0.07737445598322824</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03706602597793548</v>
+        <v>0.03417184698419121</v>
       </c>
       <c r="C65">
-        <v>-0.02361571926985127</v>
+        <v>-0.03564531250796249</v>
       </c>
       <c r="D65">
-        <v>0.1234167120825008</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1140513906548744</v>
+      </c>
+      <c r="E65">
+        <v>-0.006910200081272251</v>
+      </c>
+      <c r="F65">
+        <v>-0.02549816873741755</v>
+      </c>
+      <c r="G65">
+        <v>0.01315884022837609</v>
+      </c>
+      <c r="H65">
+        <v>0.02189516000825413</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04219983999411066</v>
+        <v>0.03488259966555943</v>
       </c>
       <c r="C66">
-        <v>-0.06880745393940209</v>
+        <v>-0.08596890505009944</v>
       </c>
       <c r="D66">
-        <v>0.1205363662988808</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.133394353413704</v>
+      </c>
+      <c r="E66">
+        <v>0.004361936951612961</v>
+      </c>
+      <c r="F66">
+        <v>0.0005355248374744149</v>
+      </c>
+      <c r="G66">
+        <v>0.01702102843715348</v>
+      </c>
+      <c r="H66">
+        <v>0.04685614093040315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03794527851267153</v>
+        <v>0.03695110527852403</v>
       </c>
       <c r="C67">
-        <v>-0.02023099973523493</v>
+        <v>-0.02714188436714639</v>
       </c>
       <c r="D67">
-        <v>0.04018356624894032</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03161936148995792</v>
+      </c>
+      <c r="E67">
+        <v>0.0104584881366456</v>
+      </c>
+      <c r="F67">
+        <v>0.02296778111009056</v>
+      </c>
+      <c r="G67">
+        <v>0.02711096080728873</v>
+      </c>
+      <c r="H67">
+        <v>0.04066903628621817</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1853566246057021</v>
+        <v>0.2254320278406887</v>
       </c>
       <c r="C68">
-        <v>0.2003233838193429</v>
+        <v>0.1659938312797978</v>
       </c>
       <c r="D68">
-        <v>0.02634398278662431</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.03093791673982694</v>
+      </c>
+      <c r="E68">
+        <v>0.01407874415481928</v>
+      </c>
+      <c r="F68">
+        <v>-0.03432322903128802</v>
+      </c>
+      <c r="G68">
+        <v>0.02300102325631357</v>
+      </c>
+      <c r="H68">
+        <v>-0.02059021871801124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08599165321788753</v>
+        <v>0.06645061748984683</v>
       </c>
       <c r="C69">
-        <v>-0.1024705102988437</v>
+        <v>-0.1083374849867099</v>
       </c>
       <c r="D69">
-        <v>0.05742594918910956</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.03751267803556872</v>
+      </c>
+      <c r="E69">
+        <v>0.01561453284718922</v>
+      </c>
+      <c r="F69">
+        <v>-0.0133092164573906</v>
+      </c>
+      <c r="G69">
+        <v>0.0129266368630117</v>
+      </c>
+      <c r="H69">
+        <v>-0.01692022459168609</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1697578175281361</v>
+        <v>0.2110579012913193</v>
       </c>
       <c r="C71">
-        <v>0.2079853188632196</v>
+        <v>0.1761625752585149</v>
       </c>
       <c r="D71">
-        <v>0.01353067896330497</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02512946778379081</v>
+      </c>
+      <c r="E71">
+        <v>0.03788481441371418</v>
+      </c>
+      <c r="F71">
+        <v>-0.05836527900740494</v>
+      </c>
+      <c r="G71">
+        <v>0.0419814478142116</v>
+      </c>
+      <c r="H71">
+        <v>-0.021965396445501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.109174055716829</v>
+        <v>0.09498121038589642</v>
       </c>
       <c r="C72">
-        <v>-0.06209770140388794</v>
+        <v>-0.09017422992432698</v>
       </c>
       <c r="D72">
-        <v>0.08227572014805001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0812391760499514</v>
+      </c>
+      <c r="E72">
+        <v>-0.06545536216405937</v>
+      </c>
+      <c r="F72">
+        <v>-0.03693979293586626</v>
+      </c>
+      <c r="G72">
+        <v>-0.002582167181882838</v>
+      </c>
+      <c r="H72">
+        <v>0.02663867345426494</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2201166160173743</v>
+        <v>0.1976550777638007</v>
       </c>
       <c r="C73">
-        <v>-0.04268245539292053</v>
+        <v>-0.1032425932206193</v>
       </c>
       <c r="D73">
-        <v>0.304822708218159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1727315805717534</v>
+      </c>
+      <c r="E73">
+        <v>-0.5839453063595111</v>
+      </c>
+      <c r="F73">
+        <v>0.1746565786007442</v>
+      </c>
+      <c r="G73">
+        <v>-0.1551556885289678</v>
+      </c>
+      <c r="H73">
+        <v>-0.1996368294813949</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1098774689253365</v>
+        <v>0.09039339482781684</v>
       </c>
       <c r="C74">
-        <v>-0.08778516597886044</v>
+        <v>-0.1078813503001962</v>
       </c>
       <c r="D74">
-        <v>-0.04094862690130868</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03960906257667856</v>
+      </c>
+      <c r="E74">
+        <v>0.03042407479560478</v>
+      </c>
+      <c r="F74">
+        <v>-0.06923203907002949</v>
+      </c>
+      <c r="G74">
+        <v>-0.01973098190038363</v>
+      </c>
+      <c r="H74">
+        <v>-0.03433004349485964</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2612462561911183</v>
+        <v>0.2186016570894205</v>
       </c>
       <c r="C75">
-        <v>-0.1537889889640127</v>
+        <v>-0.1978821684151413</v>
       </c>
       <c r="D75">
-        <v>-0.1293367700225267</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1467845191529133</v>
+      </c>
+      <c r="E75">
+        <v>0.07815924928470422</v>
+      </c>
+      <c r="F75">
+        <v>-0.01784906064677809</v>
+      </c>
+      <c r="G75">
+        <v>0.04771260535092732</v>
+      </c>
+      <c r="H75">
+        <v>-0.052974204522059</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1492028676392409</v>
+        <v>0.1222936770857842</v>
       </c>
       <c r="C76">
-        <v>-0.1112228303328899</v>
+        <v>-0.1373608606978786</v>
       </c>
       <c r="D76">
-        <v>-0.03251094969893504</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.03561385778302256</v>
+      </c>
+      <c r="E76">
+        <v>0.07778099693828222</v>
+      </c>
+      <c r="F76">
+        <v>-0.03731422779243607</v>
+      </c>
+      <c r="G76">
+        <v>0.0274187991857828</v>
+      </c>
+      <c r="H76">
+        <v>0.02774471343160665</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04393793435035283</v>
+        <v>0.04797838983502983</v>
       </c>
       <c r="C77">
-        <v>-0.07095539744586495</v>
+        <v>-0.08093479117179726</v>
       </c>
       <c r="D77">
-        <v>0.02327264102938096</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1296300338393172</v>
+      </c>
+      <c r="E77">
+        <v>0.4765947910925296</v>
+      </c>
+      <c r="F77">
+        <v>0.3991389241862321</v>
+      </c>
+      <c r="G77">
+        <v>0.0817180932359477</v>
+      </c>
+      <c r="H77">
+        <v>-0.6788932408707756</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04290268228546907</v>
+        <v>0.04082161768502768</v>
       </c>
       <c r="C78">
-        <v>-0.06271424621112022</v>
+        <v>-0.07386209516012321</v>
       </c>
       <c r="D78">
-        <v>0.1359661656130071</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.140279388680266</v>
+      </c>
+      <c r="E78">
+        <v>0.01082992953916653</v>
+      </c>
+      <c r="F78">
+        <v>-0.0380562351881573</v>
+      </c>
+      <c r="G78">
+        <v>-0.008692079095542241</v>
+      </c>
+      <c r="H78">
+        <v>-0.01920196875549598</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05668100376104603</v>
+        <v>0.0525638216967871</v>
       </c>
       <c r="C79">
-        <v>-0.1059950865082878</v>
+        <v>-0.1141155590781371</v>
       </c>
       <c r="D79">
-        <v>-0.1615722004001098</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07752936381257737</v>
+      </c>
+      <c r="E79">
+        <v>0.1963972660969782</v>
+      </c>
+      <c r="F79">
+        <v>-0.4227064934545772</v>
+      </c>
+      <c r="G79">
+        <v>-0.7782081969564882</v>
+      </c>
+      <c r="H79">
+        <v>-0.1164318353973403</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02217870404458189</v>
+        <v>0.01876298959238417</v>
       </c>
       <c r="C80">
-        <v>-0.04838241795020963</v>
+        <v>-0.048988199271361</v>
       </c>
       <c r="D80">
-        <v>0.02704140171414397</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02415991911235465</v>
+      </c>
+      <c r="E80">
+        <v>0.008519336240692899</v>
+      </c>
+      <c r="F80">
+        <v>-0.02093049759864175</v>
+      </c>
+      <c r="G80">
+        <v>0.03248339737826406</v>
+      </c>
+      <c r="H80">
+        <v>0.05286915395829179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1345072523962118</v>
+        <v>0.1059327292443445</v>
       </c>
       <c r="C81">
-        <v>-0.1167215493245387</v>
+        <v>-0.1374455600320237</v>
       </c>
       <c r="D81">
-        <v>-0.1106777933121369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1047813884326816</v>
+      </c>
+      <c r="E81">
+        <v>0.09696101938176703</v>
+      </c>
+      <c r="F81">
+        <v>-0.05904278964547004</v>
+      </c>
+      <c r="G81">
+        <v>0.02604740389621942</v>
+      </c>
+      <c r="H81">
+        <v>0.02559509668814016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.270542408887162</v>
+        <v>0.20694576103422</v>
       </c>
       <c r="C82">
-        <v>-0.2433164724540363</v>
+        <v>-0.2652067694616295</v>
       </c>
       <c r="D82">
-        <v>-0.2274381719698564</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2329765538037147</v>
+      </c>
+      <c r="E82">
+        <v>0.003796489179241289</v>
+      </c>
+      <c r="F82">
+        <v>0.04680542992604571</v>
+      </c>
+      <c r="G82">
+        <v>0.07840258205887898</v>
+      </c>
+      <c r="H82">
+        <v>0.001992520527856292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01926562008824461</v>
+        <v>0.01065385088769954</v>
       </c>
       <c r="C83">
-        <v>-0.0598999416665119</v>
+        <v>-0.05566055652726579</v>
       </c>
       <c r="D83">
-        <v>0.04529599607120934</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05226614098893211</v>
+      </c>
+      <c r="E83">
+        <v>0.0565524039070901</v>
+      </c>
+      <c r="F83">
+        <v>0.07446252603897953</v>
+      </c>
+      <c r="G83">
+        <v>-0.009696887085562352</v>
+      </c>
+      <c r="H83">
+        <v>-0.02444767346126574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001159841999121213</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.006045061257416949</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01926683622901965</v>
+      </c>
+      <c r="E84">
+        <v>0.01259107803071071</v>
+      </c>
+      <c r="F84">
+        <v>-0.02086082297269875</v>
+      </c>
+      <c r="G84">
+        <v>0.01258571833427493</v>
+      </c>
+      <c r="H84">
+        <v>0.01931583930810997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1696092594933595</v>
+        <v>0.1385362993031622</v>
       </c>
       <c r="C85">
-        <v>-0.1248741543004485</v>
+        <v>-0.1597747929983825</v>
       </c>
       <c r="D85">
-        <v>-0.06262007209181489</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.08686130074523425</v>
+      </c>
+      <c r="E85">
+        <v>0.01301526467486647</v>
+      </c>
+      <c r="F85">
+        <v>-0.05312942662556783</v>
+      </c>
+      <c r="G85">
+        <v>-0.05363674712452449</v>
+      </c>
+      <c r="H85">
+        <v>0.02432280741969959</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02336068508410051</v>
+        <v>0.02052286550069789</v>
       </c>
       <c r="C86">
-        <v>-0.0375079564590054</v>
+        <v>-0.03754669854289201</v>
       </c>
       <c r="D86">
-        <v>0.1171616738523696</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1185531047706096</v>
+      </c>
+      <c r="E86">
+        <v>0.02995319585901403</v>
+      </c>
+      <c r="F86">
+        <v>0.01215291542618672</v>
+      </c>
+      <c r="G86">
+        <v>0.03686181013228254</v>
+      </c>
+      <c r="H86">
+        <v>-0.05919570059823812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02605592337643084</v>
+        <v>0.03159937912267179</v>
       </c>
       <c r="C87">
-        <v>-0.02409009800590048</v>
+        <v>-0.03578555458993095</v>
       </c>
       <c r="D87">
-        <v>0.1117708613800795</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1396980364445994</v>
+      </c>
+      <c r="E87">
+        <v>0.0565801161205373</v>
+      </c>
+      <c r="F87">
+        <v>-0.03089101166362272</v>
+      </c>
+      <c r="G87">
+        <v>0.01501566560527134</v>
+      </c>
+      <c r="H87">
+        <v>0.03902770519416724</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0724863504195758</v>
+        <v>0.05970826549941926</v>
       </c>
       <c r="C88">
-        <v>-0.0449574361306801</v>
+        <v>-0.06068630259042467</v>
       </c>
       <c r="D88">
-        <v>0.04453046088213535</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01889897978197113</v>
+      </c>
+      <c r="E88">
+        <v>0.004633670591653652</v>
+      </c>
+      <c r="F88">
+        <v>-0.02516316697474313</v>
+      </c>
+      <c r="G88">
+        <v>-0.002581491235566579</v>
+      </c>
+      <c r="H88">
+        <v>0.04373169188730781</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2636797561270054</v>
+        <v>0.3234178421025032</v>
       </c>
       <c r="C89">
-        <v>0.3852490116821983</v>
+        <v>0.314829535495631</v>
       </c>
       <c r="D89">
-        <v>-0.0129254423602085</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.001015810127970286</v>
+      </c>
+      <c r="E89">
+        <v>0.0585370907731782</v>
+      </c>
+      <c r="F89">
+        <v>-0.00251002954808095</v>
+      </c>
+      <c r="G89">
+        <v>-0.02226956973046789</v>
+      </c>
+      <c r="H89">
+        <v>0.1477020159528069</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2228662395093775</v>
+        <v>0.2661540220275517</v>
       </c>
       <c r="C90">
-        <v>0.282400409335156</v>
+        <v>0.2229225178864658</v>
       </c>
       <c r="D90">
-        <v>0.01873596391268702</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.03332410929433015</v>
+      </c>
+      <c r="E90">
+        <v>0.04850770248493393</v>
+      </c>
+      <c r="F90">
+        <v>-0.004391719900389108</v>
+      </c>
+      <c r="G90">
+        <v>0.06174081505587772</v>
+      </c>
+      <c r="H90">
+        <v>0.01720178560775074</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1739627100913174</v>
+        <v>0.1381787014506407</v>
       </c>
       <c r="C91">
-        <v>-0.16275248568692</v>
+        <v>-0.1773502528712698</v>
       </c>
       <c r="D91">
-        <v>-0.1313010421245117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1211390488328438</v>
+      </c>
+      <c r="E91">
+        <v>0.09810432716646925</v>
+      </c>
+      <c r="F91">
+        <v>-0.06043977697190475</v>
+      </c>
+      <c r="G91">
+        <v>-0.03753943109942751</v>
+      </c>
+      <c r="H91">
+        <v>-0.02788484464463661</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1880820138302139</v>
+        <v>0.2527133901892265</v>
       </c>
       <c r="C92">
-        <v>0.2713122894195842</v>
+        <v>0.2434691893861484</v>
       </c>
       <c r="D92">
-        <v>0.0114917011246108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02806195076239858</v>
+      </c>
+      <c r="E92">
+        <v>0.1086686276430192</v>
+      </c>
+      <c r="F92">
+        <v>-0.01094202030129457</v>
+      </c>
+      <c r="G92">
+        <v>0.009216254164691422</v>
+      </c>
+      <c r="H92">
+        <v>0.05449446690965992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2410247299752313</v>
+        <v>0.2808117850976727</v>
       </c>
       <c r="C93">
-        <v>0.2986064477481283</v>
+        <v>0.2353271005948769</v>
       </c>
       <c r="D93">
-        <v>0.02396930946133129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.008719241992900391</v>
+      </c>
+      <c r="E93">
+        <v>-0.01538765713375942</v>
+      </c>
+      <c r="F93">
+        <v>-0.0404051521790632</v>
+      </c>
+      <c r="G93">
+        <v>-0.008513686363679189</v>
+      </c>
+      <c r="H93">
+        <v>-0.01851647271653561</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3470147621446121</v>
+        <v>0.2857486494411693</v>
       </c>
       <c r="C94">
-        <v>-0.2049368075368915</v>
+        <v>-0.2737967190090235</v>
       </c>
       <c r="D94">
-        <v>-0.3517066553211167</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.3812329094024668</v>
+      </c>
+      <c r="E94">
+        <v>0.006110788564503262</v>
+      </c>
+      <c r="F94">
+        <v>0.03858995561873075</v>
+      </c>
+      <c r="G94">
+        <v>0.2614816201643543</v>
+      </c>
+      <c r="H94">
+        <v>0.1863759141593793</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07434762166133344</v>
+        <v>0.06715256800673192</v>
       </c>
       <c r="C95">
-        <v>-0.0690476753521066</v>
+        <v>-0.08207345443384323</v>
       </c>
       <c r="D95">
-        <v>0.1408572751744587</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1175975020299855</v>
+      </c>
+      <c r="E95">
+        <v>0.2055843947477765</v>
+      </c>
+      <c r="F95">
+        <v>0.6733333245393018</v>
+      </c>
+      <c r="G95">
+        <v>-0.3803199718048125</v>
+      </c>
+      <c r="H95">
+        <v>0.4525049507768474</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1.282016994822525e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-9.667484322275315e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0001868168385576618</v>
+      </c>
+      <c r="E97">
+        <v>5.216363840935595e-05</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003913633117615126</v>
+      </c>
+      <c r="G97">
+        <v>0.0002863389857258489</v>
+      </c>
+      <c r="H97">
+        <v>-0.0002861929345929601</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.172523278818967</v>
+        <v>0.1603821877643645</v>
       </c>
       <c r="C98">
-        <v>-0.05669226539120055</v>
+        <v>-0.09622846584310153</v>
       </c>
       <c r="D98">
-        <v>0.1563281676497776</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1070165272746951</v>
+      </c>
+      <c r="E98">
+        <v>-0.3281305906857408</v>
+      </c>
+      <c r="F98">
+        <v>0.07815780206637758</v>
+      </c>
+      <c r="G98">
+        <v>-0.0729607772362179</v>
+      </c>
+      <c r="H98">
+        <v>-0.1196519846086026</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003808833173937371</v>
+        <v>0.005697997850406511</v>
       </c>
       <c r="C101">
-        <v>-0.02165404355124998</v>
+        <v>-0.0261598837634796</v>
       </c>
       <c r="D101">
-        <v>0.09261773743561613</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.1012963952147943</v>
+      </c>
+      <c r="E101">
+        <v>0.01046498236017396</v>
+      </c>
+      <c r="F101">
+        <v>-0.04764332004168119</v>
+      </c>
+      <c r="G101">
+        <v>0.02193975886870472</v>
+      </c>
+      <c r="H101">
+        <v>0.08203797783837311</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1248552445391627</v>
+        <v>0.09190415679236526</v>
       </c>
       <c r="C102">
-        <v>-0.1287559887177411</v>
+        <v>-0.1322304234280851</v>
       </c>
       <c r="D102">
-        <v>-0.09725914623594355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.1018084543668325</v>
+      </c>
+      <c r="E102">
+        <v>0.02493241505224318</v>
+      </c>
+      <c r="F102">
+        <v>0.03559806951051114</v>
+      </c>
+      <c r="G102">
+        <v>0.03152854626271859</v>
+      </c>
+      <c r="H102">
+        <v>-0.002091465660840428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
